--- a/data/trans_camb/P24_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_5_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,56</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 6,42</t>
+          <t>-10,68; 2,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 5,95</t>
+          <t>-6,38; 6,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,07</t>
+          <t>-8,48; 4,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 15,16</t>
+          <t>-6,1; 9,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 7,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 8,96</t>
+          <t>-10,46; 7,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 18,07</t>
+          <t>-8,06; 8,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,52</t>
+          <t>-5,12; 10,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,32</t>
+          <t>-2,91; 18,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 14,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 3,22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 5,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 6,65</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 12,54</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>-43,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>125,63%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>53,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-18,62%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,26%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>49,35%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 123,02</t>
+          <t>-84,93; 79,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,56; 133,77</t>
+          <t>-51,16; 205,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 87,05</t>
+          <t>-62,81; 112,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,95; 297,09</t>
+          <t>-55,65; 243,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 59,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 55,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 65,92</t>
+          <t>-48,48; 69,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,28; 129,69</t>
+          <t>-35,24; 79,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 53,46</t>
+          <t>-21,69; 93,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 54,39</t>
+          <t>-13,8; 162,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 56,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,38; 144,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-52,93; 37,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-31,62; 60,64</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-24,08; 74,22</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 131,32</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,84</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,56</t>
+          <t>-10,07; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,06</t>
+          <t>-6,77; 6,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 1,91</t>
+          <t>-9,39; 5,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 6,65</t>
+          <t>-9,98; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 3,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,12</t>
+          <t>-8,18; 5,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 17,58</t>
+          <t>-4,91; 7,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 1,03</t>
+          <t>-3,95; 9,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,43</t>
+          <t>-2,76; 11,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 9,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 3,55</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 5,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 5,23</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 5,88</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,62%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>-9,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-13,87%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-6,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,89; 8,34</t>
+          <t>-67,04; 111,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 39,67</t>
+          <t>-53,88; 162,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 27,17</t>
+          <t>-59,15; 126,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 84,16</t>
+          <t>-67,11; 94,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 18,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 31,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 50,25</t>
+          <t>-32,62; 27,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,03; 97,16</t>
+          <t>-19,23; 40,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 7,91</t>
+          <t>-15,68; 55,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 25,7</t>
+          <t>-10,81; 65,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 32,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 71,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-33,92; 28,79</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,66; 44,98</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 43,07</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 47,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,87</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-4,86</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,77</t>
+          <t>-6,78; 5,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,7</t>
+          <t>-6,55; 3,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,42</t>
+          <t>-8,26; 1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 8,2</t>
+          <t>-7,77; 3,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 3,6</t>
+          <t>-13,48; 0,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,68</t>
+          <t>-8,65; 5,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 1,21</t>
+          <t>-10,45; 1,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,36</t>
+          <t>-13,59; 0,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 5,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 1,03</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 3,3</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 0,19</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; -0,47</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>-7,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>-13,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,61%</t>
+          <t>-30,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>-21,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>-25,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-17,71%</t>
+          <t>-17,23%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>-28,71%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-22,36%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-8,88%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-22,18%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 44,49</t>
+          <t>-55,75; 93,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 55,77</t>
+          <t>-50,59; 53,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,49; 21,03</t>
+          <t>-60,03; 25,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 119,46</t>
+          <t>-59,05; 60,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 8,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 33,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,39; 19,55</t>
+          <t>-47,22; 2,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 36,09</t>
+          <t>-30,11; 26,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 10,6</t>
+          <t>-36,76; 9,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 32,68</t>
+          <t>-48,11; -0,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 16,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 45,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-41,86; 7,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-28,63; 23,61</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-39,72; 1,79</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-46,57; -3,11</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,59</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,62</t>
+          <t>-5,72; 0,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,15</t>
+          <t>-2,75; 5,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,72</t>
+          <t>-4,27; 4,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,39</t>
+          <t>-4,09; 4,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 12,2</t>
+          <t>-2,72; 7,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,7</t>
+          <t>-2,29; 7,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 1,29</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 5,06</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 4,47</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-20,28%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-10,35%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 8,33</t>
+          <t>-55,05; 7,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 28,06</t>
+          <t>-27,3; 72,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 12,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,14; 88,8</t>
+          <t>-40,62; 51,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 8,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 24,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 28,65</t>
+          <t>-20,85; 29,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,12; 66,5</t>
+          <t>-14,56; 44,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 20,0</t>
+          <t>-11,76; 46,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 18,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,83; 63,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-27,02; 10,17</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 40,75</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 36,6</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 0,6</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 2,83</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 0,99</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 2,11</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 1,83</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 4,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 5,7</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 5,92</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 0,32</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 2,95</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 2,49</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 3,14</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-21,09%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-15,26%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-10,36%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-10,98%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-44,06; 9,35</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,34; 39,3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-36,99; 12,27</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; 28,26</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 10,51</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 24,77</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 31,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 32,05</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-23,31; 2,52</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 22,28</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-9,32; 18,99</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 23,69</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
